--- a/biology/Botanique/Berberis_vulgaris/Berberis_vulgaris.xlsx
+++ b/biology/Botanique/Berberis_vulgaris/Berberis_vulgaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Berberis vulgaris
 Le vinettier ou l’épine-vinette (Berberis vulgaris) est une espèce d'arbustes de la famille des berbéridacées.
-En France, à partir du XIXe siècle, l'épine-vinette a été fréquemment éradiquée car c'est un hôte intermédiaire dans le cycle de la rouille noire du blé, un champignon pathogène des céréales. Cependant elle reste présente dans les zones de coteaux calcaires d'une grande moitié nord de la France[1].
+En France, à partir du XIXe siècle, l'épine-vinette a été fréquemment éradiquée car c'est un hôte intermédiaire dans le cycle de la rouille noire du blé, un champignon pathogène des céréales. Cependant elle reste présente dans les zones de coteaux calcaires d'une grande moitié nord de la France.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Berberis, nom arabe du fruit de la plante ; il signifierait coquille [réf. nécessaire] car les pétales creux sont en forme de coquille. Vinette est le nom vulgaire de l'oseille dont les feuilles rappellent le goût.
 </t>
@@ -544,13 +558,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'épine-vinette est un arbuste caduc à semi-persistant, épineux, très ramifié, atteignant 1,5 à 3 mètres de haut. Ses rameaux jaunâtres et ridés portent des épines trifurquées.Ses feuilles ovales, finement dentelées, glabres, alternes et fasciculées, sont vert clair au-dessus et glauques au revers[2].
-Les inflorescences consistent en des grappes de petites fleurs jaune d'or éclosant d'avril à juin.Leur étamine possède une ouverture en deux clapets ressemblant à des oreilles dressées ; lorsqu'un insecte touche sa base, l'étamine se rabat vers le pistil pour assurer la fécondation de ce dernier[3].
-Les fruits sont des baies rouges, plus ou moins pruineuses, mesurant généralement de 7 à 12 mm de long et de 3 à 5 mm de large. Les grappes portent généralement de huit à quinze baies. La production des fruits a tendance à alterner[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épine-vinette est un arbuste caduc à semi-persistant, épineux, très ramifié, atteignant 1,5 à 3 mètres de haut. Ses rameaux jaunâtres et ridés portent des épines trifurquées.Ses feuilles ovales, finement dentelées, glabres, alternes et fasciculées, sont vert clair au-dessus et glauques au revers.
+Les inflorescences consistent en des grappes de petites fleurs jaune d'or éclosant d'avril à juin.Leur étamine possède une ouverture en deux clapets ressemblant à des oreilles dressées ; lorsqu'un insecte touche sa base, l'étamine se rabat vers le pistil pour assurer la fécondation de ce dernier.
+Les fruits sont des baies rouges, plus ou moins pruineuses, mesurant généralement de 7 à 12 mm de long et de 3 à 5 mm de large. Les grappes portent généralement de huit à quinze baies. La production des fruits a tendance à alterner.
 Sa longévité est de 25 à 50 ans[réf. nécessaire].
-Cette plante est mellifère (nectar et pollen)[5].
+Cette plante est mellifère (nectar et pollen).
 </t>
         </is>
       </c>
@@ -579,9 +595,11 @@
           <t>Plante-hôte</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Berberis vulgaris est la plante-hôte secondaire de la rouille noire. Des études sont en cours dès 2020 en Suisse et en Europe pour suivre sa présence et son implication lors d'épidémies, dans un but de prévention[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Berberis vulgaris est la plante-hôte secondaire de la rouille noire. Des études sont en cours dès 2020 en Suisse et en Europe pour suivre sa présence et son implication lors d'épidémies, dans un but de prévention.
 </t>
         </is>
       </c>
@@ -610,7 +628,9 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Toute la plante, sauf les fruits, contient des alcaloïdes (dont la berbérine) peu toxiques.[réf. nécessaire]
 La coloration jaune d'or de la section de tiges et des racines est due à la présence de berbérine.
@@ -642,11 +662,13 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fruits, dépourvus de toxicité, sont parfois utilisés pour préparer des gelées, confitures ou boissons. Dans la littérature on signale cependant quelques cas de problèmes digestifs liés à l'ingestion (en quantité) de fruits.
 C'est aussi une plante d'ornement dont il existe de nombreuses espèces et encore plus d'hybrides et de cultivars. Ils diffèrent plus ou moins du type décrit ici par la taille ou la couleur des feuilles, la couleur des fruits.
-Selon une étude ethnobotanique publiée par Françoise et Grégoire Nicollier en 1984 sur les plantes dans la vie quotidienne à Bagnes, les racines de cette plante dénommée ékran ou épïna («épine») ou fodzëta (födzo signifiant «rouge») ou boson de fodzëte (boson signifiant «buisson») étaient utilisées pour produire une teinture jaune ; et ses tiges et ses feuilles, mélangées à de la «recuite» (= sérum qui reste après la fabrication du sérac), servaient de nourriture pour les porcs ; les fruits devenaient gelée ou confiture (le mot fodzëta désigne en particulier le fruit)[7].
+Selon une étude ethnobotanique publiée par Françoise et Grégoire Nicollier en 1984 sur les plantes dans la vie quotidienne à Bagnes, les racines de cette plante dénommée ékran ou épïna («épine») ou fodzëta (födzo signifiant «rouge») ou boson de fodzëte (boson signifiant «buisson») étaient utilisées pour produire une teinture jaune ; et ses tiges et ses feuilles, mélangées à de la «recuite» (= sérum qui reste après la fabrication du sérac), servaient de nourriture pour les porcs ; les fruits devenaient gelée ou confiture (le mot fodzëta désigne en particulier le fruit).
 </t>
         </is>
       </c>
@@ -675,9 +697,11 @@
           <t>Règlementation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante étant hôte intermédiaire de la rouille du blé, elle doit, dans certains pays, être détruite près des champs de céréales[8].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante étant hôte intermédiaire de la rouille du blé, elle doit, dans certains pays, être détruite près des champs de céréales.
 </t>
         </is>
       </c>
@@ -706,7 +730,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Coteaux calcaires et friches.
 </t>
@@ -737,9 +763,11 @@
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est évaluée comme non préoccupante aux échelons européen et français[9]
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est évaluée comme non préoccupante aux échelons européen et français
 En France l'espèce se raréfie : elle est considérée Quasi menacée (NT), proche du seuil des espèces menacées ou qui pourrait être menacée si des mesures de conservation spécifiques n'étaient pas prises, dans la région Poitou-Charentes ; elle est considérée Vulnérable (VU) en Picardie ; en Danger (EN) en Ile de France, Haute-Normandie et Limousin.
 </t>
         </is>
@@ -769,16 +797,18 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avant leur maturité leurs baies sont faiblement toxiques car elles contiennent de la berbérine[10]. Mûres en septembre, elles sont comestibles crues ou cuites.
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avant leur maturité leurs baies sont faiblement toxiques car elles contiennent de la berbérine. Mûres en septembre, elles sont comestibles crues ou cuites.
 Les baies vertes sont employées avec les sauces piquantes et les viandes rôties qu'elles relèvent de leur goût acidulé. Les fruits rouges se cuisent en confiture.
-L'Iran est un important producteur[11]
-et consommateur de baies séchées d'épine-vinette[réf. nécessaire], (zereshk /زرشک en persan ; on trouve également le terme انگور سیبری), celles-ci entrant dans la composition du zereshk polo (riz aux zereshks), les baies rouges ajoutant au riz de la couleur et un goût acidulé[12].
-En Iran, la médecine traditionnelle utilise cette plante contre les problèmes de foie (ictère, l’hypertrophie du foie) et de la rate, mais aussi contre les ulcères oculaires et d'autres maux[13].
-L'écorce des tiges et des racines possède quant à elle des propriétés anti-inflammatoires et antimicrobiennes. En Iran son aubier est ou était utilisé contre certains dysfonctionnements du foie et de la vésicule biliaire, dans la diarrhée, l’indigestion[13]...
+L'Iran est un important producteur
+et consommateur de baies séchées d'épine-vinette[réf. nécessaire], (zereshk /زرشک en persan ; on trouve également le terme انگور سیبری), celles-ci entrant dans la composition du zereshk polo (riz aux zereshks), les baies rouges ajoutant au riz de la couleur et un goût acidulé.
+En Iran, la médecine traditionnelle utilise cette plante contre les problèmes de foie (ictère, l’hypertrophie du foie) et de la rate, mais aussi contre les ulcères oculaires et d'autres maux.
+L'écorce des tiges et des racines possède quant à elle des propriétés anti-inflammatoires et antimicrobiennes. En Iran son aubier est ou était utilisé contre certains dysfonctionnements du foie et de la vésicule biliaire, dans la diarrhée, l’indigestion...
 La consommation de cette plante est déconseillée pendant la grossesse[réf. nécessaire].
-Ses graines étaient un des constituants du diascordium et du diaprun solutif de la pharmacopée maritime occidentale au XVIIIe siècle [14].
+Ses graines étaient un des constituants du diascordium et du diaprun solutif de la pharmacopée maritime occidentale au XVIIIe siècle .
 Son bois, fin et dur, de couleur jaune, a été utilisé en marqueterie et en teinturerie[réf. nécessaire].
 </t>
         </is>
@@ -808,7 +838,9 @@
           <t>Autres espèces du genre Berberis</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Flore européenne
 Berberis aetnensis
@@ -842,10 +874,12 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'épine-vinette vit son nom attribué au 13e jour du mois de fructidor du calendrier républicain français[15], généralement chaque 30 août du calendrier grégorien.
-L'astéroïde (102619) Crespino porte le nom italien de cette espèce[16].
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épine-vinette vit son nom attribué au 13e jour du mois de fructidor du calendrier républicain français, généralement chaque 30 août du calendrier grégorien.
+L'astéroïde (102619) Crespino porte le nom italien de cette espèce.
 </t>
         </is>
       </c>
